--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tac1-Tacr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tac1-Tacr1.xlsx
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Tac1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,10 +540,10 @@
         <v>7.440776</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9476581720434079</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.947658172043408</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,90 +552,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1836813333333334</v>
+        <v>0.1826916666666667</v>
       </c>
       <c r="N2">
-        <v>0.5510440000000001</v>
+        <v>0.548075</v>
       </c>
       <c r="O2">
-        <v>0.9397563650192967</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9590145389614233</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.4555772189048889</v>
+        <v>0.4531225895777777</v>
       </c>
       <c r="R2">
-        <v>4.100194970144001</v>
+        <v>4.0781033062</v>
       </c>
       <c r="S2">
-        <v>0.9397563650192967</v>
+        <v>0.9476581720434079</v>
       </c>
       <c r="T2">
-        <v>0.9590145389614233</v>
+        <v>0.947658172043408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.1369916666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.410975</v>
+      </c>
+      <c r="I3">
+        <v>0.0523418279565921</v>
+      </c>
+      <c r="J3">
+        <v>0.0523418279565921</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.1826916666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.548075</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>2.480258666666666</v>
-      </c>
-      <c r="H3">
-        <v>7.440776</v>
-      </c>
-      <c r="I3">
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.5</v>
-      </c>
-      <c r="M3">
-        <v>0.011775</v>
-      </c>
-      <c r="N3">
-        <v>0.02355</v>
-      </c>
-      <c r="O3">
-        <v>0.06024363498070327</v>
-      </c>
-      <c r="P3">
-        <v>0.0409854610385768</v>
-      </c>
       <c r="Q3">
-        <v>0.0292050458</v>
+        <v>0.02502723590277777</v>
       </c>
       <c r="R3">
-        <v>0.1752302748</v>
+        <v>0.225245123125</v>
       </c>
       <c r="S3">
-        <v>0.06024363498070327</v>
+        <v>0.0523418279565921</v>
       </c>
       <c r="T3">
-        <v>0.0409854610385768</v>
+        <v>0.0523418279565921</v>
       </c>
     </row>
   </sheetData>
